--- a/客户成分输出表.xlsx
+++ b/客户成分输出表.xlsx
@@ -68,14 +68,6 @@
   </si>
   <si>
     <t>6、增加导入表，手工加入目标行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>if 客户年日均&lt;&gt;0:分成后年日均/客户年日均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、客户占比=if(客户年日均&lt;&gt;0,分成后年日均/客户年日均,if(客户季日均&lt;&gt;0,分成后季日均/客户年日均,余额分成比率/客户余额分成比率)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -116,6 +108,14 @@
   </si>
   <si>
     <t>客户代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elif 客户年日均&lt;&gt;0:分成后年日均/客户年日均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、客户占比=if(客户年日均&lt;&gt;0,分成后年日均/客户年日均,if(客户季日均&lt;&gt;0,分成后季日均/客户年日均,余额分成比率/客户余额分成比率)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -561,7 +561,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -602,12 +602,12 @@
     </row>
     <row r="5" spans="1:9">
       <c r="I5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -617,17 +617,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="I10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="I11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
